--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -21,6 +21,26 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+  <si>
+    <t>Made some Changes</t>
+  </si>
+  <si>
+    <t>Windows 10</t>
+  </si>
+  <si>
+    <t>SCCM 2012 R2</t>
+  </si>
+  <si>
+    <t>SCCM CB</t>
+  </si>
+  <si>
+    <t>SCCM CBB</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -336,12 +356,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -15,12 +15,35 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
+  <customWorkbookViews>
+    <customWorkbookView name="amilne - Personal View" guid="{11929948-2543-47E4-B22A-99BB74A8B41F}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1296" windowHeight="754" activeSheetId="1"/>
+  </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+  <si>
+    <t>Made some Changes</t>
+  </si>
+  <si>
+    <t>SCCM 2012 R2</t>
+  </si>
+  <si>
+    <t>SCCM CB</t>
+  </si>
+  <si>
+    <t>SCCM CBB</t>
+  </si>
+  <si>
+    <t>Windows 8.1</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -71,6 +94,50 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{4639B4DB-D29A-4BA4-8BD3-12375D97B1A4}" diskRevisions="1" revisionId="3" version="2">
+  <header guid="{D4B18225-46AF-42AB-9423-0BD27B89EF72}" dateTime="2016-07-14T12:57:42" maxSheetId="2" userName="amilne" r:id="rId1">
+    <sheetIdMap count="1">
+      <sheetId val="1"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{4639B4DB-D29A-4BA4-8BD3-12375D97B1A4}" dateTime="2016-07-14T12:58:37" maxSheetId="2" userName="amilne" r:id="rId2" minRId="1" maxRId="3">
+    <sheetIdMap count="1">
+      <sheetId val="1"/>
+    </sheetIdMap>
+  </header>
+</headers>
+</file>
+
+<file path=xl/revisions/revisionLog1.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac"/>
+</file>
+
+<file path=xl/revisions/revisionLog2.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="1" sId="1">
+    <oc r="A3" t="inlineStr">
+      <is>
+        <t>Windows 10</t>
+      </is>
+    </oc>
+    <nc r="A3" t="inlineStr">
+      <is>
+        <t>Windows 8.1</t>
+      </is>
+    </nc>
+  </rcc>
+  <rm rId="2" sheetId="1" source="A6" destination="B5" sourceSheetId="1"/>
+  <rm rId="3" sheetId="1" source="A7" destination="C5" sourceSheetId="1"/>
+  <rcv guid="{11929948-2543-47E4-B22A-99BB74A8B41F}" action="delete"/>
+  <rcv guid="{11929948-2543-47E4-B22A-99BB74A8B41F}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -336,12 +403,46 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <customSheetViews>
+    <customSheetView guid="{11929948-2543-47E4-B22A-99BB74A8B41F}">
+      <selection activeCell="C5" sqref="C5"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+  </customSheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>